--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273382.964459316</v>
+        <v>-276084.612361851</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.573581980146</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>79.16414016452005</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>308.0489052884178</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>368.8527090291415</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>56.20362061967742</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>148.3089273128513</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>88.47243117382692</v>
       </c>
       <c r="T7" t="n">
-        <v>220.0133056736528</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>334.0400281388304</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.627274291514</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>191.1891487966025</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>69.2275921426063</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0189251916143</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436608</v>
+        <v>94.29488917436611</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282965</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.8905104633244</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>95.83269290487699</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>122.6907501522931</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>267.840211079681</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>244.2383528899818</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.1975869426796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>50.36261740543372</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.56423921895201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="G19" t="n">
-        <v>129.009682740605</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>120.8326485140806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>43.73846614325447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.968252138995</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>254.4710728434501</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>57.8244908215236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>73.78417491007328</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3089,13 +3089,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="33">
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>32.37373183919223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>101.9268484343554</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.05856366754502</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146489</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31367585848577</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>152.8291121019621</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899561</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.06198119183945</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018859</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312947</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312947</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097404</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097404</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6039361998077</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="C3" t="n">
-        <v>256.1509069186807</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="D3" t="n">
-        <v>256.1509069186807</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198758</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198758</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198758</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198758</v>
+        <v>329.4357102594318</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>697.3589686102955</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>709.3965921992917</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886972</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309534</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.18993515947</v>
+        <v>1181.546657016635</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.18993515947</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D5" t="n">
-        <v>838.9242365527191</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
         <v>459.4002418346858</v>
@@ -4568,10 +4568,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4595,22 +4595,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.789775223591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.789775223591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.789775223591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.789775223591</v>
+        <v>1568.146497080756</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.0496057289574</v>
+        <v>376.1487741961588</v>
       </c>
       <c r="C6" t="n">
-        <v>444.5965764478304</v>
+        <v>376.1487741961588</v>
       </c>
       <c r="D6" t="n">
-        <v>444.5965764478304</v>
+        <v>376.1487741961588</v>
       </c>
       <c r="E6" t="n">
-        <v>285.3591214423749</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8245634692599</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333486</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835204</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835204</v>
+        <v>1677.466965013394</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968468</v>
+        <v>1449.365375146658</v>
       </c>
       <c r="V6" t="n">
-        <v>1249.35379968276</v>
+        <v>1214.213266914915</v>
       </c>
       <c r="W6" t="n">
-        <v>995.1164429545584</v>
+        <v>959.9759101867135</v>
       </c>
       <c r="X6" t="n">
-        <v>787.2649427490255</v>
+        <v>752.1244099811806</v>
       </c>
       <c r="Y6" t="n">
-        <v>787.2649427490255</v>
+        <v>544.3641112162268</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I7" t="n">
         <v>43.36919653809306</v>
@@ -4747,28 +4747,28 @@
         <v>520.289347040599</v>
       </c>
       <c r="R7" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="S7" t="n">
-        <v>520.289347040599</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="T7" t="n">
-        <v>298.0536847439799</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="U7" t="n">
-        <v>298.0536847439799</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="V7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>321.7587587179065</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.6006974458904</v>
+        <v>432.1994102827449</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6381805054787</v>
+        <v>63.23689334233315</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6381805054787</v>
+        <v>63.23689334233315</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6381805054787</v>
+        <v>63.23689334233315</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>56.29139259312968</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941057</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="J8" t="n">
         <v>156.8280559420291</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002229</v>
+        <v>376.1555054002224</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707921</v>
+        <v>685.152362570791</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937547</v>
+        <v>1060.640340937546</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733705</v>
+        <v>1446.817915733703</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659506</v>
+        <v>1798.139187659503</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284331</v>
+        <v>2063.482764284327</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228513</v>
+        <v>2214.571993228509</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970528</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179432</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="T8" t="n">
-        <v>1892.712468859631</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="U8" t="n">
-        <v>1639.108524755938</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="V8" t="n">
-        <v>1639.108524755938</v>
+        <v>1885.987325626953</v>
       </c>
       <c r="W8" t="n">
-        <v>1286.339869485824</v>
+        <v>1533.218670356839</v>
       </c>
       <c r="X8" t="n">
-        <v>1286.339869485824</v>
+        <v>1159.752912095759</v>
       </c>
       <c r="Y8" t="n">
-        <v>896.2005375100123</v>
+        <v>769.6135801199473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>527.41655167106</v>
+        <v>700.1462568803558</v>
       </c>
       <c r="C9" t="n">
-        <v>527.41655167106</v>
+        <v>630.2193961302485</v>
       </c>
       <c r="D9" t="n">
-        <v>378.4821420098087</v>
+        <v>481.2849864689973</v>
       </c>
       <c r="E9" t="n">
-        <v>378.4821420098087</v>
+        <v>322.0475314635418</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344407</v>
+        <v>175.5129734904268</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618006</v>
+        <v>175.5129734904268</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941057</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941057</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113491</v>
+        <v>92.51967467113461</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154158</v>
+        <v>253.0195209154152</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572535</v>
+        <v>515.1539122572524</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449727</v>
+        <v>840.4092510449709</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738684</v>
+        <v>1188.681775738681</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074212</v>
+        <v>1485.063300074209</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566941</v>
+        <v>1703.602536566938</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257638</v>
+        <v>1799.771032257635</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285083</v>
+        <v>1799.771032257635</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285083</v>
+        <v>1799.771032257635</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838235</v>
+        <v>1605.147520810787</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893357</v>
+        <v>1605.147520810787</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661615</v>
+        <v>1369.995412579044</v>
       </c>
       <c r="W9" t="n">
-        <v>1111.243687661615</v>
+        <v>1115.758055850843</v>
       </c>
       <c r="X9" t="n">
-        <v>903.392187456082</v>
+        <v>907.9065556453097</v>
       </c>
       <c r="Y9" t="n">
-        <v>695.6318886911281</v>
+        <v>700.1462568803558</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.2771871873175</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941057</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941057</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941057</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941057</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941057</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941057</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941057</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016725</v>
+        <v>95.74470838016694</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810357</v>
+        <v>191.4295496810351</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422654</v>
+        <v>295.5740818422645</v>
       </c>
       <c r="N10" t="n">
-        <v>405.099815709124</v>
+        <v>405.0998157091228</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712719</v>
+        <v>485.9514692712704</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139727</v>
+        <v>536.072055313971</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139727</v>
+        <v>536.072055313971</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139727</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="S10" t="n">
-        <v>337.2072378461995</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="T10" t="n">
-        <v>337.2072378461995</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="U10" t="n">
-        <v>337.2072378461995</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="V10" t="n">
-        <v>337.2072378461995</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="W10" t="n">
-        <v>213.2771871873175</v>
+        <v>439.2713554100548</v>
       </c>
       <c r="X10" t="n">
-        <v>213.2771871873175</v>
+        <v>211.2818045120375</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.2771871873175</v>
+        <v>211.2818045120375</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754457</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>758.2621135864138</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>372.4738609881697</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656955</v>
+        <v>695.1615405656971</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.52680204827</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.821395088692</v>
+        <v>2988.463914704703</v>
       </c>
       <c r="W11" t="n">
-        <v>2720.052739818579</v>
+        <v>2635.695259434589</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818579</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818579</v>
+        <v>1872.090169197698</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>889.4740370626181</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599346</v>
+        <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861145</v>
+        <v>1933.239912720358</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2401.180957052881</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.9017361535896</v>
+        <v>691.3935293364668</v>
       </c>
       <c r="C13" t="n">
-        <v>607.9017361535896</v>
+        <v>522.4573464085599</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535896</v>
+        <v>372.3407069962242</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711965</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758653</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648151</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344818</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>2086.49163803025</v>
       </c>
       <c r="T13" t="n">
-        <v>2056.743466925584</v>
+        <v>1865.60030546469</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.651773875035</v>
+        <v>1576.508612414141</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.967285669148</v>
+        <v>1321.824124208254</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.550115632187</v>
+        <v>1321.824124208254</v>
       </c>
       <c r="X13" t="n">
-        <v>995.5605647341697</v>
+        <v>1093.834573310237</v>
       </c>
       <c r="Y13" t="n">
-        <v>774.7679855906396</v>
+        <v>873.0419941667066</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327645</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630042</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,22 +5528,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327734</v>
+        <v>696.7084350851669</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048665</v>
+        <v>527.77225215726</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048665</v>
+        <v>527.77225215726</v>
       </c>
       <c r="E19" t="n">
-        <v>594.8179559048665</v>
+        <v>527.77225215726</v>
       </c>
       <c r="F19" t="n">
-        <v>447.9280084069562</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.36161860321</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947407</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741521</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704561</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806543</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630131</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
     <row r="20">
@@ -5732,55 +5732,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307826</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028758</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>672.69086739054</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081469</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5902,58 +5902,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,22 +6175,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2238.914344045922</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1949.83911739012</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V25" t="n">
-        <v>1695.154629184233</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.737459147272</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X25" t="n">
-        <v>1177.747908249255</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y25" t="n">
-        <v>956.9553291057244</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207406</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892232</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="E31" t="n">
-        <v>564.5188827892232</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F31" t="n">
-        <v>417.6289352913129</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>250.4328360061929</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1734.291686000759</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1479.607197794872</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.45506571713</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>733.45506571713</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>583.3384263047942</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>435.4253327224012</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473697</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579756</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755826</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,22 +7099,22 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851667</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572597</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449239</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>377.6556127449239</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>230.7656652470136</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>230.7656652470136</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058936</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154064</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135314</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473698</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194629</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071272</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1376146247341</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>301.2476671268237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>139.0358346620304</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.51390558015314</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.63439323925772</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>135.8720715866031</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.462504043051945e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6825818796758</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012264</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>21.62386594322865</v>
       </c>
       <c r="G19" t="n">
-        <v>36.51445555166384</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.58839950885069</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583901</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>11.43719818829322</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>31.713401545794</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>194.3131525023044</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51053793615061</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>45.44677382459248</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>113.047316183739</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>66.36248435538623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>85.98103698773812</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>65.75554125013269</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.533687599288</v>
+        <v>57.22910392194277</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>100.4621571004294</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1021338.922072578</v>
+        <v>1021338.922072579</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
@@ -26344,10 +26344,10 @@
         <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837524</v>
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861775</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264204</v>
+        <v>12262.85603264081</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674504</v>
+        <v>395943.9567674526</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704279</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487778</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.44734994959</v>
+        <v>3074.447349949274</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.260893112</v>
+        <v>103409.2608931126</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202338</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607421</v>
+        <v>170817.8827607424</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186735</v>
+      </c>
+      <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="G4" t="n">
-        <v>14826.69604186742</v>
-      </c>
       <c r="H4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.6960418674</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26448,13 +26448,13 @@
         <v>14826.69604186744</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404161</v>
+        <v>86153.75444404152</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-618988.6040674825</v>
+        <v>-618988.6040674826</v>
       </c>
       <c r="C6" t="n">
-        <v>-344021.6525318413</v>
+        <v>-344021.6525318412</v>
       </c>
       <c r="D6" t="n">
-        <v>38656.17046168039</v>
+        <v>38656.1704616815</v>
       </c>
       <c r="E6" t="n">
-        <v>-221081.7527141583</v>
+        <v>-221302.8840281352</v>
       </c>
       <c r="F6" t="n">
-        <v>-2577.519752451321</v>
+        <v>-2612.257677885937</v>
       </c>
       <c r="G6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.011092542</v>
       </c>
       <c r="H6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.011092542</v>
       </c>
       <c r="I6" t="n">
-        <v>186730.749017978</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="J6" t="n">
-        <v>137665.8042894332</v>
+        <v>137631.0663639975</v>
       </c>
       <c r="K6" t="n">
-        <v>95470.79215309997</v>
+        <v>95436.05422766428</v>
       </c>
       <c r="L6" t="n">
-        <v>183656.3016680283</v>
+        <v>183621.5637425928</v>
       </c>
       <c r="M6" t="n">
-        <v>83321.48812486576</v>
+        <v>83286.75019942955</v>
       </c>
       <c r="N6" t="n">
-        <v>136891.174885954</v>
+        <v>136856.4369605188</v>
       </c>
       <c r="O6" t="n">
-        <v>186730.7490179779</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="P6" t="n">
-        <v>186730.7490179779</v>
+        <v>186696.0110925421</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573207</v>
+        <v>863.6234498573197</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426321</v>
+        <v>554.2625532426309</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490101</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636669</v>
+        <v>9.912785319635645</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576297</v>
+        <v>338.6177873576316</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646887</v>
+        <v>12.14759651646772</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063768</v>
+        <v>414.9582707063792</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646864</v>
+        <v>12.14759651646749</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706377</v>
+        <v>414.9582707063794</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646887</v>
+        <v>12.14759651646772</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063768</v>
+        <v>414.9582707063792</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940403</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>55.07149847525497</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>126.6088450389574</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482795</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>57.22398648258979</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>13.07766104312026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>136.5595976910863</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>84.491659836574</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>18.15430933923926</v>
@@ -27819,19 +27819,19 @@
         <v>22.59469128425556</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>108.7152595857889</v>
       </c>
       <c r="T7" t="n">
-        <v>1.354513060649822</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>48.69381352465018</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9186869163651</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151417</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>16.70866397657238</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>103.4809068457094</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.05028720176956</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433992</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282979</v>
       </c>
       <c r="S9" t="n">
         <v>137.178970064727</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332428</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099042</v>
+        <v>21.09786070099057</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>11.43641022648427</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8322481842978</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.278217681418498e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.460698725481052e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29809,13 +29809,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.843005748014548e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753045</v>
+        <v>3.471853064753041</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940214</v>
+        <v>35.55611519940209</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788919</v>
+        <v>133.8486152788917</v>
       </c>
       <c r="J8" t="n">
-        <v>294.669189054584</v>
+        <v>294.6691890545837</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855805</v>
+        <v>441.63272928558</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160167</v>
+        <v>547.884452516016</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563186</v>
+        <v>609.6270194563178</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765483</v>
+        <v>619.4914219765475</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639101</v>
+        <v>584.9681830639095</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278193</v>
+        <v>499.2568105278186</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463507</v>
+        <v>374.9210726463502</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787937</v>
+        <v>218.0887900787934</v>
       </c>
       <c r="S8" t="n">
-        <v>79.1148517130601</v>
+        <v>79.11485171306001</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095646</v>
+        <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802435</v>
+        <v>0.2777482451802432</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.857605156296876</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213038</v>
+        <v>17.94055506213036</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566008</v>
+        <v>63.95701963566</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148731</v>
+        <v>175.5029503148729</v>
       </c>
       <c r="K9" t="n">
-        <v>299.962495786764</v>
+        <v>299.9624957867636</v>
       </c>
       <c r="L9" t="n">
-        <v>403.336593256478</v>
+        <v>403.3365932564775</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722397</v>
+        <v>470.6747801722391</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668799</v>
+        <v>483.1321410668793</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510384</v>
+        <v>441.9715215510379</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423399</v>
+        <v>354.7211109423395</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230893</v>
+        <v>237.121668723089</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111343</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911085</v>
+        <v>34.50420103911082</v>
       </c>
       <c r="T9" t="n">
-        <v>7.48745236244224</v>
+        <v>7.487452362442231</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458473</v>
+        <v>0.1222108655458472</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037791</v>
+        <v>1.557353762037789</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066328</v>
+        <v>13.84629072066326</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291831</v>
+        <v>46.83387495291826</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760718</v>
+        <v>110.1049109760717</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258452</v>
+        <v>180.9361916258449</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306004</v>
+        <v>231.5360311306001</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801603</v>
+        <v>244.12228108016</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762014</v>
+        <v>238.3175988762011</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833053</v>
+        <v>220.1248753833051</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377342</v>
+        <v>188.354858637734</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284554</v>
+        <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580831</v>
+        <v>70.02428824580822</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387677</v>
+        <v>27.14042874387674</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343288</v>
+        <v>6.65414789234328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842508</v>
+        <v>0.08494656883842497</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747752</v>
       </c>
       <c r="M12" t="n">
-        <v>250.19804513143</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>293.7693957029101</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278977</v>
+        <v>113.6232845278974</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406</v>
+        <v>221.5428782405995</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460295</v>
+        <v>312.1180375460288</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290459</v>
+        <v>379.2807862290451</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799574</v>
+        <v>390.0783583799566</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422234</v>
+        <v>354.8699716422227</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725497</v>
+        <v>268.0238147725491</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719012</v>
+        <v>152.6153827719008</v>
       </c>
       <c r="R8" t="n">
-        <v>2.50325226466154</v>
+        <v>2.503252264661285</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6653236482064</v>
+        <v>48.6653236482062</v>
       </c>
       <c r="K9" t="n">
-        <v>162.121056812405</v>
+        <v>162.1210568124046</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766038</v>
+        <v>264.7822134766033</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502214</v>
+        <v>328.5407462502208</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835466</v>
+        <v>351.790428983546</v>
       </c>
       <c r="O9" t="n">
-        <v>299.375277106594</v>
+        <v>299.3752771065935</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280097</v>
+        <v>220.7467035280093</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706775</v>
+        <v>97.1398946370675</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530979</v>
+        <v>51.92293345530956</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936209</v>
+        <v>96.65135484936181</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325552</v>
+        <v>105.1964971325549</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109682</v>
+        <v>110.632054410968</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146253</v>
+        <v>81.66833693146228</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858661</v>
+        <v>50.62685458858641</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.926303694901</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094117</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>159.7949882885798</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999058</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>340.7312191630721</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
